--- a/test/test_reallocate.xlsx
+++ b/test/test_reallocate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="94">
   <si>
     <t xml:space="preserve">Account</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t xml:space="preserve">CRIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robinhood</t>
   </si>
   <si>
     <t xml:space="preserve">Total (Portfolio)</t>
@@ -373,7 +379,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +389,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -449,7 +461,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -466,10 +478,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -490,6 +510,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -504,6 +528,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -587,6 +615,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF66"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -595,10 +683,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -663,10 +751,10 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -674,560 +762,622 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="8" t="n">
+      <c r="E2" s="9" t="n">
+        <v>500</v>
+      </c>
+      <c r="F2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="8" t="n">
+      <c r="E3" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12" t="n">
+        <v>100</v>
+      </c>
+      <c r="S3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="8" t="n">
+      <c r="E4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="12" t="n">
+        <v>100</v>
+      </c>
+      <c r="S4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="8" t="n">
+      <c r="E5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="8" t="n">
+      <c r="E6" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="8" t="n">
+      <c r="E7" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="8" t="n">
+      <c r="E8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="8" t="n">
+      <c r="E9" s="17" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="N9" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="P9" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="R9" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="8" t="n">
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="17" t="n">
+        <v>100</v>
+      </c>
+      <c r="T10" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="10" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1246,8 +1396,8 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1262,221 +1412,221 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19" t="n">
+      <c r="B2" s="23" t="n">
         <v>0.06</v>
       </c>
-      <c r="C2" s="20" t="n">
+      <c r="C2" s="24" t="n">
         <v>15</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="21"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="19" t="n">
+      <c r="B3" s="23" t="n">
         <v>0.045</v>
       </c>
-      <c r="C3" s="20" t="n">
+      <c r="C3" s="24" t="n">
         <v>13</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="21"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19" t="n">
+      <c r="B4" s="23" t="n">
         <v>0.045</v>
       </c>
-      <c r="C4" s="20" t="n">
+      <c r="C4" s="24" t="n">
         <v>14</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="21"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19" t="n">
+      <c r="B5" s="23" t="n">
         <v>0.2</v>
       </c>
-      <c r="C5" s="20" t="n">
+      <c r="C5" s="24" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="21"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="19" t="n">
+      <c r="B6" s="23" t="n">
         <v>0.1</v>
       </c>
-      <c r="C6" s="20" t="n">
+      <c r="C6" s="24" t="n">
         <v>9</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="21"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="19" t="n">
+      <c r="B7" s="23" t="n">
         <v>0.1</v>
       </c>
-      <c r="C7" s="20" t="n">
+      <c r="C7" s="24" t="n">
         <v>11</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="21"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="19" t="n">
+      <c r="B8" s="23" t="n">
         <v>0.18</v>
       </c>
-      <c r="C8" s="20" t="n">
+      <c r="C8" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="21"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="19" t="n">
+      <c r="B9" s="23" t="n">
         <v>0.12</v>
       </c>
-      <c r="C9" s="20" t="n">
+      <c r="C9" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="21"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="19" t="n">
+      <c r="B10" s="23" t="n">
         <v>0.035</v>
       </c>
-      <c r="C10" s="20" t="n">
+      <c r="C10" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="21"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="19" t="n">
+      <c r="B11" s="23" t="n">
         <v>0.06</v>
       </c>
-      <c r="C11" s="20" t="n">
+      <c r="C11" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="21"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="19" t="n">
+      <c r="B12" s="23" t="n">
         <v>0.035</v>
       </c>
-      <c r="C12" s="20" t="n">
+      <c r="C12" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="21"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="19" t="n">
+      <c r="B13" s="23" t="n">
         <v>0.01</v>
       </c>
-      <c r="C13" s="20" t="n">
+      <c r="C13" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="21"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="19" t="n">
+      <c r="B14" s="23" t="n">
         <v>0.01</v>
       </c>
-      <c r="C14" s="20" t="n">
+      <c r="C14" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="20" t="n">
+      <c r="B15" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="21"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="23" t="n">
+      <c r="B16" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="27" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="24" t="n">
+      <c r="B17" s="28" t="n">
         <f aca="false">SUM(Desired_Allocation!B2:B15)</f>
         <v>1</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>46</v>
+      <c r="C17" s="28" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1508,40 +1658,40 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>48</v>
+      <c r="A1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="18" t="n">
+      <c r="A2" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="22" t="n">
         <v>1000000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="23" t="n">
+      <c r="A3" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="23" t="n">
+      <c r="A4" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="27" t="n">
         <v>5000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1578,370 +1728,370 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="26" t="s">
+      <c r="B1" s="30" t="s">
         <v>54</v>
       </c>
+      <c r="C1" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>57</v>
       </c>
+      <c r="C2" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="28" t="s">
+      <c r="D4" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="28" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="28" t="s">
+      <c r="C5" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="28" t="s">
+      <c r="C6" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="28" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
+      <c r="C7" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="28" t="s">
+      <c r="D15" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="32" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="28" t="s">
+      <c r="C17" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="33"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="28" t="s">
+      <c r="C18" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="33"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="33"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="28" t="s">
+      <c r="C20" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="32" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="28" t="s">
+      <c r="C21" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="28" t="s">
+      <c r="C22" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="28" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="34" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="28" t="s">
+      <c r="C24" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="29"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27" t="s">
+      <c r="C25" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="29"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="29"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>67</v>
+      <c r="D25" s="34" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>67</v>
+      <c r="A26" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1975,99 +2125,99 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>84</v>
       </c>
+      <c r="B1" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="n">
+      <c r="A2" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="18" t="n">
+      <c r="B2" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="22" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="n">
+      <c r="A3" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="18" t="n">
+      <c r="C3" s="22" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="n">
+      <c r="A4" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="18" t="n">
+      <c r="C4" s="22" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="n">
+      <c r="A5" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="18" t="n">
+      <c r="C5" s="22" t="n">
         <v>9999999999999</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2103,133 +2253,133 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="31" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="D1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="35" t="s">
         <v>90</v>
       </c>
+      <c r="F1" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="23" t="n">
+      <c r="C2" s="27" t="n">
         <v>5000</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23" t="s">
-        <v>91</v>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="22" t="n">
+      <c r="C3" s="27"/>
+      <c r="D3" s="26" t="n">
         <v>0.03</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/test/test_reallocate.xlsx
+++ b/test/test_reallocate.xlsx
@@ -651,17 +651,17 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="18" min="5" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="18" min="5" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -785,6 +785,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
+        <f aca="false">SUM(E2:S2)</f>
         <v>94253</v>
       </c>
     </row>
@@ -847,6 +848,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
+        <f aca="false">SUM(E3:S3)</f>
         <v>39695</v>
       </c>
     </row>
@@ -864,7 +866,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>13793.05</v>
+        <v>13793</v>
       </c>
       <c r="F4" s="7" t="n">
         <v>1729.84</v>
@@ -909,7 +911,8 @@
         <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>28439.02</v>
+        <f aca="false">SUM(E4:S4)</f>
+        <v>48438.97</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -926,7 +929,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>447.13</v>
+        <v>447</v>
       </c>
       <c r="F5" s="7" t="n">
         <v>1096.64</v>
@@ -971,7 +974,8 @@
         <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9413.24</v>
+        <f aca="false">SUM(E5:S5)</f>
+        <v>9413.11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -988,7 +992,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6.09</v>
+        <v>6</v>
       </c>
       <c r="F6" s="7" t="n">
         <v>0</v>
@@ -1033,7 +1037,8 @@
         <v>0</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>5507.04</v>
+        <f aca="false">SUM(E6:S6)</f>
+        <v>5506.95</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1050,7 +1055,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>79.05</v>
+        <v>79</v>
       </c>
       <c r="F7" s="7" t="n">
         <v>0</v>
@@ -1095,7 +1100,8 @@
         <v>0</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>79054.34</v>
+        <f aca="false">SUM(E7:S7)</f>
+        <v>79054.29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1112,7 +1118,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>220.99</v>
+        <v>220</v>
       </c>
       <c r="F8" s="7" t="n">
         <v>0</v>
@@ -1157,7 +1163,8 @@
         <v>0</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>220992.1</v>
+        <f aca="false">SUM(E8:S8)</f>
+        <v>220991.11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1174,7 +1181,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>283.09</v>
+        <v>283</v>
       </c>
       <c r="F9" s="7" t="n">
         <v>0</v>
@@ -1219,7 +1226,8 @@
         <v>0</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>2380.9</v>
+        <f aca="false">SUM(E9:S9)</f>
+        <v>2380.81</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1236,7 +1244,7 @@
         <v>35</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>54.65</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="n">
         <v>0</v>
@@ -1281,7 +1289,8 @@
         <v>0</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>68382.85</v>
+        <f aca="false">SUM(E10:S10)</f>
+        <v>68382.2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1343,7 +1352,8 @@
         <v>0</v>
       </c>
       <c r="T11" s="4" t="n">
-        <v>127909.33</v>
+        <f aca="false">SUM(E11:S11)</f>
+        <v>142802.78</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1405,6 +1415,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="4" t="n">
+        <f aca="false">SUM(E12:S12)</f>
         <v>3522</v>
       </c>
     </row>
@@ -1467,6 +1478,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="4" t="n">
+        <f aca="false">SUM(E13:S13)</f>
         <v>28315</v>
       </c>
     </row>
@@ -1529,7 +1541,8 @@
         <v>0</v>
       </c>
       <c r="T14" s="4" t="n">
-        <v>0</v>
+        <f aca="false">SUM(E14:S14)</f>
+        <v>10000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1540,52 +1553,68 @@
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="6" t="n">
-        <v>112765.6</v>
-      </c>
-      <c r="F15" s="7" t="n">
+        <f aca="false">SUM(E2:E14)</f>
+        <v>112657</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <f aca="false">SUM(F2:F14)</f>
         <v>2826.48</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="6" t="n">
+        <f aca="false">SUM(G2:G14)</f>
         <v>30430.96</v>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="H15" s="6" t="n">
+        <f aca="false">SUM(H2:H14)</f>
         <v>106256.16</v>
       </c>
-      <c r="I15" s="4" t="n">
+      <c r="I15" s="6" t="n">
+        <f aca="false">SUM(I2:I14)</f>
         <v>144848.42</v>
       </c>
-      <c r="J15" s="4" t="n">
+      <c r="J15" s="6" t="n">
+        <f aca="false">SUM(J2:J14)</f>
         <v>102876.96</v>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="6" t="n">
+        <f aca="false">SUM(K2:K14)</f>
         <v>50071.64</v>
       </c>
-      <c r="L15" s="4" t="n">
+      <c r="L15" s="6" t="n">
+        <f aca="false">SUM(L2:L14)</f>
         <v>43937.44</v>
       </c>
-      <c r="M15" s="4" t="n">
+      <c r="M15" s="6" t="n">
+        <f aca="false">SUM(M2:M14)</f>
         <v>25183.64</v>
       </c>
-      <c r="N15" s="4" t="n">
+      <c r="N15" s="6" t="n">
+        <f aca="false">SUM(N2:N14)</f>
         <v>43278.06</v>
       </c>
-      <c r="O15" s="4" t="n">
+      <c r="O15" s="6" t="n">
+        <f aca="false">SUM(O2:O14)</f>
         <v>33947.23</v>
       </c>
-      <c r="P15" s="4" t="n">
+      <c r="P15" s="6" t="n">
+        <f aca="false">SUM(P2:P14)</f>
         <v>6071.11</v>
       </c>
-      <c r="Q15" s="4" t="n">
+      <c r="Q15" s="6" t="n">
+        <f aca="false">SUM(Q2:Q14)</f>
         <v>5370.12</v>
       </c>
-      <c r="R15" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" s="4" t="n">
-        <v>707863.82</v>
+      <c r="R15" s="6" t="n">
+        <f aca="false">SUM(R2:R14)</f>
+        <v>45000</v>
+      </c>
+      <c r="S15" s="6" t="n">
+        <f aca="false">SUM(S2:S14)</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="6" t="n">
+        <f aca="false">SUM(T2:T14)</f>
+        <v>752755.22</v>
       </c>
     </row>
   </sheetData>
@@ -1615,13 +1644,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1866,7 +1895,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1929,12 +1959,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2329,10 +2361,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2454,11 +2486,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2614,11 +2648,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.0102040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/test/test_reallocate.xlsx
+++ b/test/test_reallocate.xlsx
@@ -650,8 +650,8 @@
   </sheetPr>
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1319,7 +1319,7 @@
         <v>11084.65</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>10838.4</v>
+        <v>838.4</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>10695.17</v>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="T11" s="4" t="n">
         <f aca="false">SUM(E11:S11)</f>
-        <v>142802.78</v>
+        <v>132802.78</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1538,11 +1538,11 @@
         <v>10000</v>
       </c>
       <c r="S14" s="8" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="T14" s="4" t="n">
         <f aca="false">SUM(E14:S14)</f>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I15" s="6" t="n">
         <f aca="false">SUM(I2:I14)</f>
-        <v>144848.42</v>
+        <v>134848.42</v>
       </c>
       <c r="J15" s="6" t="n">
         <f aca="false">SUM(J2:J14)</f>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="S15" s="6" t="n">
         <f aca="false">SUM(S2:S14)</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="T15" s="6" t="n">
         <f aca="false">SUM(T2:T14)</f>
@@ -1639,7 +1639,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
